--- a/3.Understand/EE6483-热门考点分析.xlsx
+++ b/3.Understand/EE6483-热门考点分析.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
   <si>
     <t>目录</t>
   </si>
@@ -332,84 +330,6 @@
   </si>
   <si>
     <t>4.总结</t>
-  </si>
-  <si>
-    <t>8.CK方程</t>
-  </si>
-  <si>
-    <t>9.柯尔莫哥洛夫微分方程</t>
-  </si>
-  <si>
-    <t>10.生灭过程</t>
-  </si>
-  <si>
-    <t>排队模型</t>
-  </si>
-  <si>
-    <t>1.排队</t>
-  </si>
-  <si>
-    <t>2.利特尔定律</t>
-  </si>
-  <si>
-    <t>3.M/M/1排队模型</t>
-  </si>
-  <si>
-    <t>4.M/M/1/N 排队模型</t>
-  </si>
-  <si>
-    <t>5.M/M/m 排队模型</t>
-  </si>
-  <si>
-    <t>6.批量到达队列(Mb/M/1)</t>
-  </si>
-  <si>
-    <t>决策分析</t>
-  </si>
-  <si>
-    <t>1.确定性下的决策</t>
-  </si>
-  <si>
-    <t>1.1层次分析法</t>
-  </si>
-  <si>
-    <t>2.风险下的决策</t>
-  </si>
-  <si>
-    <t>2.1期望收益</t>
-  </si>
-  <si>
-    <t>2.2决策树分析</t>
-  </si>
-  <si>
-    <t>2.3效用理论</t>
-  </si>
-  <si>
-    <t>2.4冯·诺伊曼-摩根斯坦方法</t>
-  </si>
-  <si>
-    <t>2.5将风险纳入决策树分析</t>
-  </si>
-  <si>
-    <t>2.6信息的价值</t>
-  </si>
-  <si>
-    <t>3.不确定性下的决策</t>
-  </si>
-  <si>
-    <t>3.1. 悲观标准（Maximin标准）</t>
-  </si>
-  <si>
-    <t>3.2. 乐观准则（Maximax）</t>
-  </si>
-  <si>
-    <t>3.3. 赫维奇准则（Copt）</t>
-  </si>
-  <si>
-    <t>3.4. 后悔标准（萨维奇标准）</t>
-  </si>
-  <si>
-    <t>3.5. 拉普拉斯的标准</t>
   </si>
 </sst>
 </file>
@@ -431,12 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -449,6 +363,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -593,7 +513,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +522,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -614,24 +540,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.35"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -639,12 +553,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,7 +896,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1012,16 +920,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1030,153 +938,126 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,676 +1374,513 @@
   <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="32.1818181818182" style="11" customWidth="1"/>
-    <col min="2" max="2" width="44.1818181818182" style="11" customWidth="1"/>
-    <col min="3" max="5" width="27.0909090909091" style="11" customWidth="1"/>
-    <col min="6" max="6" width="14.5454545454545" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="32.1818181818182" style="5" customWidth="1"/>
+    <col min="2" max="2" width="44.1818181818182" style="5" customWidth="1"/>
+    <col min="3" max="3" width="40.2727272727273" style="5" customWidth="1"/>
+    <col min="4" max="4" width="41.9090909090909" style="5" customWidth="1"/>
+    <col min="5" max="5" width="40.0909090909091" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.5454545454545" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="1" spans="1:1">
-      <c r="A2" s="12" t="s">
+    <row r="2" s="2" customFormat="1" spans="1:1">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="9" customFormat="1" spans="1:1">
-      <c r="A3" s="13" t="s">
+    <row r="3" s="3" customFormat="1" spans="1:1">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" s="9" customFormat="1" spans="1:1">
-      <c r="A4" s="9" t="s">
+    <row r="4" s="3" customFormat="1" spans="1:1">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" s="9" customFormat="1" spans="1:1">
-      <c r="A5" s="9" t="s">
+    <row r="5" s="3" customFormat="1" spans="1:1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" s="9" customFormat="1" spans="1:1">
-      <c r="A8" s="9" t="s">
+    <row r="8" s="3" customFormat="1" spans="1:1">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" s="9" customFormat="1" spans="1:1">
-      <c r="A14" s="9" t="s">
+    <row r="14" s="3" customFormat="1" spans="1:1">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="8" customFormat="1" spans="1:1">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="2" customFormat="1" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" s="9" customFormat="1" spans="1:1">
-      <c r="A18" s="13" t="s">
+    <row r="18" s="3" customFormat="1" spans="1:1">
+      <c r="A18" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" s="9" customFormat="1" spans="1:1">
-      <c r="A19" s="9" t="s">
+    <row r="19" s="3" customFormat="1" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" s="9" customFormat="1" spans="1:1">
-      <c r="A20" s="9" t="s">
+    <row r="20" s="3" customFormat="1" spans="1:1">
+      <c r="A20" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="17" t="s">
+      <c r="E22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" s="9" customFormat="1" spans="1:1">
-      <c r="A26" s="9" t="s">
+    <row r="26" s="3" customFormat="1" spans="1:1">
+      <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="16" t="s">
+      <c r="D28" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="9" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" s="9" customFormat="1" spans="1:1">
-      <c r="A32" s="9" t="s">
+    <row r="32" s="3" customFormat="1" spans="1:1">
+      <c r="A32" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="14" t="s">
+      <c r="D35" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="18" t="s">
+      <c r="E36" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" s="10" customFormat="1" spans="1:1">
-      <c r="A41" s="10" t="s">
+    <row r="41" s="4" customFormat="1" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="42" s="8" customFormat="1" spans="1:1">
-      <c r="A42" s="8" t="s">
+    <row r="42" s="2" customFormat="1" spans="1:1">
+      <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="43" s="9" customFormat="1" spans="1:1">
-      <c r="A43" s="9" t="s">
+    <row r="43" s="3" customFormat="1" spans="1:1">
+      <c r="A43" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" s="9" customFormat="1" spans="1:1">
-      <c r="A44" s="9" t="s">
+    <row r="44" s="3" customFormat="1" spans="1:1">
+      <c r="A44" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="5" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="16" t="s">
+      <c r="A46" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="16" t="s">
+      <c r="B46" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E46" s="18" t="s">
+      <c r="E46" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="11" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="48" s="9" customFormat="1" spans="1:1">
-      <c r="A48" s="13" t="s">
+    <row r="48" s="3" customFormat="1" spans="1:1">
+      <c r="A48" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="5" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="17" t="s">
+      <c r="E50" s="10" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="51" s="10" customFormat="1" spans="1:1">
-      <c r="A51" s="10" t="s">
+    <row r="51" s="4" customFormat="1" spans="1:1">
+      <c r="A51" s="4" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="52" s="10" customFormat="1" spans="1:1">
-      <c r="A52" s="10" t="s">
+    <row r="52" s="4" customFormat="1" spans="1:1">
+      <c r="A52" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" s="10" customFormat="1" spans="1:4">
-      <c r="A53" s="17" t="s">
+    <row r="53" s="4" customFormat="1" spans="1:4">
+      <c r="A53" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="17" t="s">
+      <c r="B53" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D53" s="17" t="s">
+      <c r="D53" s="10" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="54" s="10" customFormat="1" spans="1:1">
-      <c r="A54" s="20" t="s">
+    <row r="54" s="4" customFormat="1" spans="1:1">
+      <c r="A54" s="12" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="55" s="10" customFormat="1" spans="1:1">
-      <c r="A55" s="10" t="s">
+    <row r="55" s="4" customFormat="1" spans="1:1">
+      <c r="A55" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="56" s="9" customFormat="1" spans="1:1">
-      <c r="A56" s="9" t="s">
+    <row r="56" s="3" customFormat="1" spans="1:1">
+      <c r="A56" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:1">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="58" s="10" customFormat="1" spans="1:1">
-      <c r="A58" s="10" t="s">
+    <row r="58" s="4" customFormat="1" spans="1:1">
+      <c r="A58" s="4" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" s="10" customFormat="1" spans="1:1">
-      <c r="A59" s="10" t="s">
+    <row r="59" s="4" customFormat="1" spans="1:1">
+      <c r="A59" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="60" s="10" customFormat="1" spans="1:5">
-      <c r="A60" s="16" t="s">
+    <row r="60" s="4" customFormat="1" spans="1:5">
+      <c r="A60" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E60" s="21" t="s">
+      <c r="E60" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="61" s="10" customFormat="1" spans="1:1">
-      <c r="A61" s="10" t="s">
+    <row r="61" s="4" customFormat="1" spans="1:1">
+      <c r="A61" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="62" s="10" customFormat="1" spans="1:5">
-      <c r="A62" s="16" t="s">
+    <row r="62" s="4" customFormat="1" spans="1:5">
+      <c r="A62" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" s="9" customFormat="1" spans="1:1">
-      <c r="A63" s="9" t="s">
+    <row r="63" s="3" customFormat="1" spans="1:1">
+      <c r="A63" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="64" s="10" customFormat="1"/>
-    <row r="65" s="10" customFormat="1"/>
-    <row r="66" s="10" customFormat="1"/>
-    <row r="67" s="10" customFormat="1"/>
-    <row r="68" s="10" customFormat="1" spans="1:1">
-      <c r="A68" s="20"/>
-    </row>
-    <row r="69" s="10" customFormat="1" spans="1:1">
-      <c r="A69" s="20"/>
-    </row>
-    <row r="70" s="10" customFormat="1"/>
-    <row r="71" s="10" customFormat="1"/>
-    <row r="72" s="10" customFormat="1" spans="1:1">
-      <c r="A72" s="20"/>
-    </row>
-    <row r="73" s="10" customFormat="1" spans="1:1">
-      <c r="A73" s="20"/>
-    </row>
-    <row r="74" s="10" customFormat="1"/>
-    <row r="75" s="10" customFormat="1"/>
-    <row r="76" s="10" customFormat="1"/>
-    <row r="77" s="10" customFormat="1"/>
-    <row r="78" s="10" customFormat="1" spans="1:1">
-      <c r="A78" s="20"/>
-    </row>
-    <row r="79" s="10" customFormat="1"/>
-    <row r="80" s="10" customFormat="1"/>
-    <row r="81" s="10" customFormat="1"/>
-    <row r="82" s="10" customFormat="1"/>
-    <row r="83" s="10" customFormat="1"/>
-    <row r="84" s="10" customFormat="1"/>
-    <row r="85" s="10" customFormat="1" spans="1:1">
-      <c r="A85" s="20"/>
-    </row>
-    <row r="86" s="10" customFormat="1" spans="1:1">
-      <c r="A86" s="20"/>
-    </row>
-    <row r="87" s="10" customFormat="1" spans="1:1">
-      <c r="A87" s="20"/>
-    </row>
-    <row r="88" s="10" customFormat="1" spans="1:1">
-      <c r="A88" s="20"/>
-    </row>
-    <row r="89" s="10" customFormat="1" spans="1:1">
-      <c r="A89" s="20"/>
-    </row>
-    <row r="90" s="10" customFormat="1" spans="1:1">
-      <c r="A90" s="20"/>
-    </row>
-    <row r="91" s="10" customFormat="1"/>
-    <row r="92" s="10" customFormat="1" spans="1:1">
-      <c r="A92" s="20"/>
+    <row r="64" s="4" customFormat="1"/>
+    <row r="65" s="4" customFormat="1"/>
+    <row r="66" s="4" customFormat="1"/>
+    <row r="67" s="4" customFormat="1"/>
+    <row r="68" s="4" customFormat="1" spans="1:1">
+      <c r="A68" s="12"/>
+    </row>
+    <row r="69" s="4" customFormat="1" spans="1:1">
+      <c r="A69" s="12"/>
+    </row>
+    <row r="70" s="4" customFormat="1"/>
+    <row r="71" s="4" customFormat="1"/>
+    <row r="72" s="4" customFormat="1" spans="1:1">
+      <c r="A72" s="12"/>
+    </row>
+    <row r="73" s="4" customFormat="1" spans="1:1">
+      <c r="A73" s="12"/>
+    </row>
+    <row r="74" s="4" customFormat="1"/>
+    <row r="75" s="4" customFormat="1"/>
+    <row r="76" s="4" customFormat="1"/>
+    <row r="77" s="4" customFormat="1"/>
+    <row r="78" s="4" customFormat="1" spans="1:1">
+      <c r="A78" s="12"/>
+    </row>
+    <row r="79" s="4" customFormat="1"/>
+    <row r="80" s="4" customFormat="1"/>
+    <row r="81" s="4" customFormat="1"/>
+    <row r="82" s="4" customFormat="1"/>
+    <row r="83" s="4" customFormat="1"/>
+    <row r="84" s="4" customFormat="1"/>
+    <row r="85" s="4" customFormat="1" spans="1:1">
+      <c r="A85" s="12"/>
+    </row>
+    <row r="86" s="4" customFormat="1" spans="1:1">
+      <c r="A86" s="12"/>
+    </row>
+    <row r="87" s="4" customFormat="1" spans="1:1">
+      <c r="A87" s="12"/>
+    </row>
+    <row r="88" s="4" customFormat="1" spans="1:1">
+      <c r="A88" s="12"/>
+    </row>
+    <row r="89" s="4" customFormat="1" spans="1:1">
+      <c r="A89" s="12"/>
+    </row>
+    <row r="90" s="4" customFormat="1" spans="1:1">
+      <c r="A90" s="12"/>
+    </row>
+    <row r="91" s="4" customFormat="1"/>
+    <row r="92" s="4" customFormat="1" spans="1:1">
+      <c r="A92" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A4" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A11" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A14" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A21" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15.5" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/3.Understand/EE6483-热门考点分析.xlsx
+++ b/3.Understand/EE6483-热门考点分析.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="108">
   <si>
     <t>目录</t>
   </si>
@@ -65,7 +65,7 @@
     <t>Q1：状态空间图+最佳优先搜索树</t>
   </si>
   <si>
-    <t>Q1：壶；状态+操作符+树+深广</t>
+    <t>Q1：壶；状态+操作符+树</t>
   </si>
   <si>
     <t>Q1：跳棋；树+loop</t>
@@ -74,6 +74,9 @@
     <t>2.2 搜索策略</t>
   </si>
   <si>
+    <t>Q1：DFS+BFS</t>
+  </si>
+  <si>
     <t>3.启发式搜索游戏</t>
   </si>
   <si>
@@ -110,13 +113,13 @@
     <t>4.2 关联分析</t>
   </si>
   <si>
-    <t>Q1：FP-Growth：HEAD+FPT+CFPT+FP</t>
+    <t>Q1：FP-Growth：HEAD+FPT+CFPT+频繁项集</t>
   </si>
   <si>
     <t>Q1：单分支枚举FP</t>
   </si>
   <si>
-    <t>Q1：ARM两任务，FPvsApriori+评估</t>
+    <t>Q1：ARM两任务，FPvsApriori+Lift</t>
   </si>
   <si>
     <t>机器学习</t>
@@ -152,6 +155,9 @@
     <t>2.5 总结</t>
   </si>
   <si>
+    <t>Q3:决策树vsKNN</t>
+  </si>
+  <si>
     <t>3.最近邻分类器和支持向量机</t>
   </si>
   <si>
@@ -164,6 +170,9 @@
     <t>Q3：1or0-Margin，wb分类错误，margin计算</t>
   </si>
   <si>
+    <t>Q3：决策边界+支持向量(合格)+最大margin</t>
+  </si>
+  <si>
     <t>Q3：决策边界+最大margin+支持向量</t>
   </si>
   <si>
@@ -245,6 +254,9 @@
     <t>Q4：HAC+single+complete；K-mean</t>
   </si>
   <si>
+    <t>Q4：HAC+single+complete</t>
+  </si>
+  <si>
     <t>Q4：HAC+average</t>
   </si>
   <si>
@@ -281,6 +293,9 @@
     <t>Q3：最佳epoch+过拟合+模型容量+正则化+数据</t>
   </si>
   <si>
+    <t>Q3最佳epoch+过拟合量</t>
+  </si>
+  <si>
     <t>Q3：dropout目的+缩放输出，早期停止、数据增强、Dropout</t>
   </si>
   <si>
@@ -308,6 +323,9 @@
     <t>Q4：目的+实现+PC1+vs线性回归</t>
   </si>
   <si>
+    <t>Q4：概念+问题+步骤</t>
+  </si>
+  <si>
     <t>Q4：PC1 and PC2</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
   </si>
   <si>
     <t>Q4：朴素贝叶斯分类器</t>
+  </si>
+  <si>
+    <t>Q4：贝叶斯计算+概率论计算</t>
   </si>
   <si>
     <t>Q4：概率论计算</t>
@@ -513,7 +534,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -546,19 +567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.8"/>
+        <fgColor theme="7" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -896,7 +929,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,16 +953,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -938,89 +971,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1054,7 +1087,13 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1376,7 +1415,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B51"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1444,385 +1483,412 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>14</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" s="3" customFormat="1" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" s="3" customFormat="1" spans="1:1">
       <c r="A18" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" s="3" customFormat="1" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>36</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="D24" s="9" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" s="3" customFormat="1" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="9" t="s">
+      <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
-        <v>51</v>
+      <c r="A33" s="9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="A36" s="8" t="s">
         <v>60</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" s="4" customFormat="1" spans="1:1">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:1">
       <c r="A42" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" s="3" customFormat="1" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" s="3" customFormat="1" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="A46" s="8" t="s">
         <v>73</v>
       </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>75</v>
+      <c r="A47" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="48" s="3" customFormat="1" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>79</v>
+      <c r="A50" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="51" s="4" customFormat="1" spans="1:1">
       <c r="A51" s="4" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" s="4" customFormat="1" spans="1:1">
       <c r="A52" s="4" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" s="4" customFormat="1" spans="1:4">
       <c r="A53" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="54" s="4" customFormat="1" spans="1:1">
-      <c r="A54" s="12" t="s">
-        <v>85</v>
+      <c r="A54" s="14" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="55" s="4" customFormat="1" spans="1:1">
       <c r="A55" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" s="3" customFormat="1" spans="1:1">
       <c r="A56" s="3" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" s="4" customFormat="1" spans="1:1">
       <c r="A58" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" s="4" customFormat="1" spans="1:1">
       <c r="A59" s="4" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" s="4" customFormat="1" spans="1:5">
-      <c r="A60" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E60" s="9" t="s">
-        <v>94</v>
+      <c r="A60" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61" s="4" customFormat="1" spans="1:1">
       <c r="A61" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" s="4" customFormat="1" spans="1:5">
-      <c r="A62" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>99</v>
+      <c r="A62" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" s="3" customFormat="1" spans="1:1">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="64" s="4" customFormat="1"/>
@@ -1830,25 +1896,25 @@
     <row r="66" s="4" customFormat="1"/>
     <row r="67" s="4" customFormat="1"/>
     <row r="68" s="4" customFormat="1" spans="1:1">
-      <c r="A68" s="12"/>
+      <c r="A68" s="14"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:1">
-      <c r="A69" s="12"/>
+      <c r="A69" s="14"/>
     </row>
     <row r="70" s="4" customFormat="1"/>
     <row r="71" s="4" customFormat="1"/>
     <row r="72" s="4" customFormat="1" spans="1:1">
-      <c r="A72" s="12"/>
+      <c r="A72" s="14"/>
     </row>
     <row r="73" s="4" customFormat="1" spans="1:1">
-      <c r="A73" s="12"/>
+      <c r="A73" s="14"/>
     </row>
     <row r="74" s="4" customFormat="1"/>
     <row r="75" s="4" customFormat="1"/>
     <row r="76" s="4" customFormat="1"/>
     <row r="77" s="4" customFormat="1"/>
     <row r="78" s="4" customFormat="1" spans="1:1">
-      <c r="A78" s="12"/>
+      <c r="A78" s="14"/>
     </row>
     <row r="79" s="4" customFormat="1"/>
     <row r="80" s="4" customFormat="1"/>
@@ -1857,26 +1923,26 @@
     <row r="83" s="4" customFormat="1"/>
     <row r="84" s="4" customFormat="1"/>
     <row r="85" s="4" customFormat="1" spans="1:1">
-      <c r="A85" s="12"/>
+      <c r="A85" s="14"/>
     </row>
     <row r="86" s="4" customFormat="1" spans="1:1">
-      <c r="A86" s="12"/>
+      <c r="A86" s="14"/>
     </row>
     <row r="87" s="4" customFormat="1" spans="1:1">
-      <c r="A87" s="12"/>
+      <c r="A87" s="14"/>
     </row>
     <row r="88" s="4" customFormat="1" spans="1:1">
-      <c r="A88" s="12"/>
+      <c r="A88" s="14"/>
     </row>
     <row r="89" s="4" customFormat="1" spans="1:1">
-      <c r="A89" s="12"/>
+      <c r="A89" s="14"/>
     </row>
     <row r="90" s="4" customFormat="1" spans="1:1">
-      <c r="A90" s="12"/>
+      <c r="A90" s="14"/>
     </row>
     <row r="91" s="4" customFormat="1"/>
     <row r="92" s="4" customFormat="1" spans="1:1">
-      <c r="A92" s="12"/>
+      <c r="A92" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
